--- a/Floor_1/Right_wing.xlsx
+++ b/Floor_1/Right_wing.xlsx
@@ -26,17 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -475,7 +469,6 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,7 +476,6 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -491,7 +483,6 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -499,7 +490,6 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,7 +497,6 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -515,7 +504,6 @@
           <t>6.10</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,7 +511,6 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -531,7 +518,6 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -539,7 +525,6 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -547,7 +532,6 @@
           <t>10.10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,7 +539,6 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -563,7 +546,6 @@
           <t>12.10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,7 +553,6 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -579,7 +560,6 @@
           <t>14.10</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -587,7 +567,6 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -595,7 +574,6 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -603,7 +581,6 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -611,7 +588,6 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -619,7 +595,6 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -627,7 +602,6 @@
           <t>20.10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -635,7 +609,6 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -643,7 +616,6 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -651,7 +623,6 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -659,7 +630,6 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -667,7 +637,6 @@
           <t>25.10</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -675,7 +644,6 @@
           <t>26.10</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -683,7 +651,6 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -691,7 +658,6 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -699,7 +665,6 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -707,7 +672,6 @@
           <t>30.10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -715,7 +679,6 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Floor_1/Right_wing.xlsx
+++ b/Floor_1/Right_wing.xlsx
@@ -26,12 +26,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,6 +475,7 @@
           <t>1.10</t>
         </is>
       </c>
+      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,6 +483,7 @@
           <t>2.10</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -483,6 +491,7 @@
           <t>3.10</t>
         </is>
       </c>
+      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,6 +499,7 @@
           <t>4.10</t>
         </is>
       </c>
+      <c r="D5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -497,6 +507,7 @@
           <t>5.10</t>
         </is>
       </c>
+      <c r="E6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +515,7 @@
           <t>6.10</t>
         </is>
       </c>
+      <c r="F7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -511,6 +523,7 @@
           <t>7.10</t>
         </is>
       </c>
+      <c r="G8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -518,6 +531,7 @@
           <t>8.10</t>
         </is>
       </c>
+      <c r="H9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -525,6 +539,7 @@
           <t>9.10</t>
         </is>
       </c>
+      <c r="I10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -532,6 +547,7 @@
           <t>10.10</t>
         </is>
       </c>
+      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -539,6 +555,7 @@
           <t>11.10</t>
         </is>
       </c>
+      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -546,6 +563,7 @@
           <t>12.10</t>
         </is>
       </c>
+      <c r="D13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -553,6 +571,7 @@
           <t>13.10</t>
         </is>
       </c>
+      <c r="E14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -560,6 +579,7 @@
           <t>14.10</t>
         </is>
       </c>
+      <c r="F15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -567,6 +587,7 @@
           <t>15.10</t>
         </is>
       </c>
+      <c r="G16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -574,6 +595,7 @@
           <t>16.10</t>
         </is>
       </c>
+      <c r="H17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -581,6 +603,7 @@
           <t>17.10</t>
         </is>
       </c>
+      <c r="I18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,6 +611,7 @@
           <t>18.10</t>
         </is>
       </c>
+      <c r="B19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -595,6 +619,7 @@
           <t>19.10</t>
         </is>
       </c>
+      <c r="C20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -602,6 +627,7 @@
           <t>20.10</t>
         </is>
       </c>
+      <c r="D21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -609,6 +635,7 @@
           <t>21.10</t>
         </is>
       </c>
+      <c r="E22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -616,6 +643,7 @@
           <t>22.10</t>
         </is>
       </c>
+      <c r="F23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -623,6 +651,7 @@
           <t>23.10</t>
         </is>
       </c>
+      <c r="G24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -630,6 +659,7 @@
           <t>24.10</t>
         </is>
       </c>
+      <c r="H25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -637,6 +667,7 @@
           <t>25.10</t>
         </is>
       </c>
+      <c r="I26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -644,6 +675,7 @@
           <t>26.10</t>
         </is>
       </c>
+      <c r="B27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -651,6 +683,7 @@
           <t>27.10</t>
         </is>
       </c>
+      <c r="C28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -658,6 +691,7 @@
           <t>28.10</t>
         </is>
       </c>
+      <c r="D29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -665,6 +699,7 @@
           <t>29.10</t>
         </is>
       </c>
+      <c r="E30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -672,6 +707,7 @@
           <t>30.10</t>
         </is>
       </c>
+      <c r="F31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -679,6 +715,7 @@
           <t>31.10</t>
         </is>
       </c>
+      <c r="G32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
